--- a/IBK/excel/BL_ret_BL_result_0715_02_exp.xlsx
+++ b/IBK/excel/BL_ret_BL_result_0715_02_exp.xlsx
@@ -2874,13 +2874,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="23.75" style="12" customWidth="1"/>
     <col min="2" max="2" width="48.875" style="12" customWidth="1"/>
     <col min="3" max="3" width="46.25" style="12" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="12" customWidth="1"/>
